--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2403252.795738548</v>
+        <v>2400793.371759146</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9377516.541974479</v>
+        <v>9377516.541974481</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.28738762568308</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.28738762568308</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.589085278990213</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.64648667473817</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.333083839988108</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>9.772948131658454</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.46513102070165</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.28738762568308</v>
       </c>
-      <c r="E9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.28738762568308</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.28738762568308</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.46513102070165</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1315,49 +1315,49 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.28738762568308</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.888679035833163</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.28738762568308</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.46513102070165</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57645198486849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.4027785055015</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>153.4377316204565</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.050671640436</v>
       </c>
       <c r="H13" t="n">
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>331.3456120265292</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>106.9148083149993</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>65.31165434429546</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
@@ -1859,7 +1859,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>170.1893932228001</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>127.5242795138776</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>186.0838245178896</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2144,7 +2144,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2494,7 +2494,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128494</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785987</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.59990604631768</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>90.27293084484303</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.20188851094866</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>378.7786887369639</v>
+        <v>378.7786887369638</v>
       </c>
       <c r="C32" t="n">
-        <v>361.3177388444909</v>
+        <v>361.3177388444907</v>
       </c>
       <c r="D32" t="n">
-        <v>350.7278886941663</v>
+        <v>350.7278886941662</v>
       </c>
       <c r="E32" t="n">
-        <v>377.9752171457451</v>
+        <v>377.975217145745</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9208928151947</v>
+        <v>402.9208928151946</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9665727269368</v>
+        <v>406.9665727269366</v>
       </c>
       <c r="H32" t="n">
-        <v>290.6526114608038</v>
+        <v>290.6526114608037</v>
       </c>
       <c r="I32" t="n">
-        <v>37.62177684640929</v>
+        <v>37.62177684640917</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2326088616592</v>
+        <v>105.232608861659</v>
       </c>
       <c r="T32" t="n">
-        <v>199.9628172131035</v>
+        <v>199.9628172131034</v>
       </c>
       <c r="U32" t="n">
-        <v>247.0400190323853</v>
+        <v>247.0400190323852</v>
       </c>
       <c r="V32" t="n">
-        <v>323.7971055436182</v>
+        <v>323.7971055436181</v>
       </c>
       <c r="W32" t="n">
-        <v>345.2858157908963</v>
+        <v>345.2858157908962</v>
       </c>
       <c r="X32" t="n">
-        <v>365.7759477519523</v>
+        <v>365.7759477519522</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2827857295369</v>
+        <v>382.2827857295368</v>
       </c>
     </row>
     <row r="33">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.8768272554206</v>
+        <v>175.8768272554205</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.2916681721111</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.4788097200524</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>153.6136544144554</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.97699974353067</v>
+        <v>84.97699974353056</v>
       </c>
       <c r="S34" t="n">
-        <v>185.8138724049252</v>
+        <v>185.8138724049251</v>
       </c>
       <c r="T34" t="n">
-        <v>215.5937963496525</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.2566852790962</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>209.7161410751791</v>
+        <v>248.1824903973112</v>
       </c>
       <c r="W34" t="n">
-        <v>282.5678454100743</v>
+        <v>282.5678454100742</v>
       </c>
       <c r="X34" t="n">
-        <v>221.7545024625205</v>
+        <v>221.7545024625204</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.6295004255781</v>
+        <v>214.629500425578</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797673</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043388</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572834</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145489</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536685</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.946589034861</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797673</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043388</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572834</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.377283791243</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145486</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="C8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="D8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="E8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="F8" t="n">
-        <v>27.41882363674277</v>
+        <v>23.32043838851252</v>
       </c>
       <c r="G8" t="n">
-        <v>11.97701795423461</v>
+        <v>7.878632706004357</v>
       </c>
       <c r="H8" t="n">
-        <v>11.97701795423461</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="I8" t="n">
-        <v>11.97701795423461</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="J8" t="n">
         <v>1.222991010054646</v>
       </c>
       <c r="K8" t="n">
-        <v>16.35750475948089</v>
+        <v>15.74600925445357</v>
       </c>
       <c r="L8" t="n">
-        <v>31.49201850890714</v>
+        <v>15.74600925445357</v>
       </c>
       <c r="M8" t="n">
-        <v>46.62653225833338</v>
+        <v>30.88052300387982</v>
       </c>
       <c r="N8" t="n">
-        <v>61.14955050273231</v>
+        <v>30.88052300387982</v>
       </c>
       <c r="O8" t="n">
-        <v>61.14955050273231</v>
+        <v>46.01503675330606</v>
       </c>
       <c r="P8" t="n">
         <v>61.14955050273231</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.73229409870392</v>
+        <v>61.14955050273231</v>
       </c>
       <c r="R8" t="n">
-        <v>52.73229409870392</v>
+        <v>61.14955050273231</v>
       </c>
       <c r="S8" t="n">
-        <v>42.86062931925093</v>
+        <v>45.70774482022415</v>
       </c>
       <c r="T8" t="n">
-        <v>42.86062931925093</v>
+        <v>45.70774482022415</v>
       </c>
       <c r="U8" t="n">
-        <v>42.86062931925093</v>
+        <v>45.70774482022415</v>
       </c>
       <c r="V8" t="n">
-        <v>42.86062931925093</v>
+        <v>45.70774482022415</v>
       </c>
       <c r="W8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="X8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.86062931925093</v>
+        <v>30.26593913771599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.14955050273231</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="C9" t="n">
-        <v>61.14955050273231</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="D9" t="n">
-        <v>45.70774482022415</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="E9" t="n">
-        <v>30.26593913771599</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="F9" t="n">
-        <v>14.82413345520783</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="G9" t="n">
         <v>1.222991010054646</v>
@@ -4881,19 +4881,19 @@
         <v>1.222991010054646</v>
       </c>
       <c r="J9" t="n">
-        <v>1.252046544590265</v>
+        <v>1.252046544590275</v>
       </c>
       <c r="K9" t="n">
-        <v>1.252046544590265</v>
+        <v>1.252046544590275</v>
       </c>
       <c r="L9" t="n">
-        <v>15.74600925445357</v>
+        <v>16.38656029401652</v>
       </c>
       <c r="M9" t="n">
-        <v>30.88052300387982</v>
+        <v>31.52107404344277</v>
       </c>
       <c r="N9" t="n">
-        <v>46.01503675330606</v>
+        <v>46.65558779286901</v>
       </c>
       <c r="O9" t="n">
         <v>61.14955050273231</v>
@@ -4905,28 +4905,28 @@
         <v>61.14955050273231</v>
       </c>
       <c r="R9" t="n">
-        <v>61.14955050273231</v>
+        <v>47.54840805757912</v>
       </c>
       <c r="S9" t="n">
-        <v>61.14955050273231</v>
+        <v>47.54840805757912</v>
       </c>
       <c r="T9" t="n">
-        <v>61.14955050273231</v>
+        <v>47.54840805757912</v>
       </c>
       <c r="U9" t="n">
-        <v>61.14955050273231</v>
+        <v>32.10660237507096</v>
       </c>
       <c r="V9" t="n">
-        <v>61.14955050273231</v>
+        <v>32.10660237507096</v>
       </c>
       <c r="W9" t="n">
-        <v>61.14955050273231</v>
+        <v>16.66479669256281</v>
       </c>
       <c r="X9" t="n">
-        <v>61.14955050273231</v>
+        <v>16.66479669256281</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.14955050273231</v>
+        <v>16.66479669256281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="C10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="D10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="E10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="F10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="G10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="H10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="I10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="J10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="K10" t="n">
         <v>1.222991010054646</v>
@@ -4969,7 +4969,7 @@
         <v>16.35750475948089</v>
       </c>
       <c r="M10" t="n">
-        <v>31.49201850890714</v>
+        <v>30.88052300387982</v>
       </c>
       <c r="N10" t="n">
         <v>46.01503675330606</v>
@@ -4978,34 +4978,34 @@
         <v>61.14955050273231</v>
       </c>
       <c r="P10" t="n">
-        <v>59.24179390088063</v>
+        <v>61.14955050273231</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.24179390088063</v>
+        <v>45.70774482022415</v>
       </c>
       <c r="R10" t="n">
-        <v>43.79998821837247</v>
+        <v>45.70774482022415</v>
       </c>
       <c r="S10" t="n">
-        <v>43.79998821837247</v>
+        <v>30.26593913771599</v>
       </c>
       <c r="T10" t="n">
-        <v>43.79998821837247</v>
+        <v>16.66479669256281</v>
       </c>
       <c r="U10" t="n">
-        <v>43.79998821837247</v>
+        <v>16.66479669256281</v>
       </c>
       <c r="V10" t="n">
-        <v>43.79998821837247</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="W10" t="n">
-        <v>43.79998821837247</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="X10" t="n">
-        <v>28.35818253586431</v>
+        <v>1.222991010054646</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.66479669256281</v>
+        <v>1.222991010054646</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2022.787634864786</v>
+        <v>1856.262358569878</v>
       </c>
       <c r="C11" t="n">
         <v>1701.274750872448</v>
       </c>
       <c r="D11" t="n">
-        <v>1390.458685213771</v>
+        <v>1390.45868521377</v>
       </c>
       <c r="E11" t="n">
-        <v>1052.1200655636</v>
+        <v>1052.120065563599</v>
       </c>
       <c r="F11" t="n">
-        <v>688.5837937220656</v>
+        <v>688.5837937220653</v>
       </c>
       <c r="G11" t="n">
         <v>320.9609765151353</v>
@@ -5039,16 +5039,16 @@
         <v>70.82700907197575</v>
       </c>
       <c r="J11" t="n">
-        <v>406.0766237065723</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K11" t="n">
-        <v>739.8959973964188</v>
+        <v>739.8959973964193</v>
       </c>
       <c r="L11" t="n">
         <v>1190.930210644828</v>
       </c>
       <c r="M11" t="n">
-        <v>1724.462115316752</v>
+        <v>1724.462115316753</v>
       </c>
       <c r="N11" t="n">
         <v>2271.240932375535</v>
@@ -5063,7 +5063,7 @@
         <v>3417.274131367732</v>
       </c>
       <c r="R11" t="n">
-        <v>3541.350453598787</v>
+        <v>3541.350453598788</v>
       </c>
       <c r="S11" t="n">
         <v>3478.509418073956</v>
@@ -5075,16 +5075,16 @@
         <v>3113.900459628161</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.287205232663</v>
+        <v>2830.287205232664</v>
       </c>
       <c r="W11" t="n">
         <v>2524.968182910623</v>
       </c>
       <c r="X11" t="n">
-        <v>2198.952057597616</v>
+        <v>2198.952057597617</v>
       </c>
       <c r="Y11" t="n">
-        <v>2198.952057597616</v>
+        <v>1856.262358569878</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>945.8587471209003</v>
+        <v>945.8587471209011</v>
       </c>
       <c r="C12" t="n">
-        <v>771.4057178397733</v>
+        <v>771.4057178397741</v>
       </c>
       <c r="D12" t="n">
-        <v>622.4713081785221</v>
+        <v>622.4713081785228</v>
       </c>
       <c r="E12" t="n">
-        <v>463.2338531730666</v>
+        <v>463.2338531730672</v>
       </c>
       <c r="F12" t="n">
-        <v>316.6992951999516</v>
+        <v>316.6992951999522</v>
       </c>
       <c r="G12" t="n">
-        <v>180.3361950325702</v>
+        <v>180.3361950325703</v>
       </c>
       <c r="H12" t="n">
-        <v>89.8343006704378</v>
+        <v>89.83430067043778</v>
       </c>
       <c r="I12" t="n">
         <v>70.82700907197575</v>
@@ -5124,7 +5124,7 @@
         <v>402.7684775429402</v>
       </c>
       <c r="L12" t="n">
-        <v>769.4666378556057</v>
+        <v>769.4666378556055</v>
       </c>
       <c r="M12" t="n">
         <v>1216.742963077922</v>
@@ -5136,16 +5136,16 @@
         <v>2101.227286050431</v>
       </c>
       <c r="P12" t="n">
-        <v>2411.726877526533</v>
+        <v>2411.726877526534</v>
       </c>
       <c r="Q12" t="n">
-        <v>2569.368435173133</v>
+        <v>2569.368435173134</v>
       </c>
       <c r="R12" t="n">
-        <v>2569.224081765648</v>
+        <v>2569.224081765649</v>
       </c>
       <c r="S12" t="n">
-        <v>2439.786195259128</v>
+        <v>2439.786195259129</v>
       </c>
       <c r="T12" t="n">
         <v>2247.143194936984</v>
@@ -5157,13 +5157,13 @@
         <v>1783.923239839657</v>
       </c>
       <c r="W12" t="n">
-        <v>1529.685883111455</v>
+        <v>1529.685883111456</v>
       </c>
       <c r="X12" t="n">
-        <v>1321.834382905922</v>
+        <v>1321.834382905923</v>
       </c>
       <c r="Y12" t="n">
-        <v>1114.074084140968</v>
+        <v>1114.074084140969</v>
       </c>
     </row>
     <row r="13">
@@ -5182,10 +5182,10 @@
         <v>539.6275860009905</v>
       </c>
       <c r="E13" t="n">
-        <v>439.1641253666707</v>
+        <v>439.1641253666708</v>
       </c>
       <c r="F13" t="n">
-        <v>339.7238108168337</v>
+        <v>339.7238108168341</v>
       </c>
       <c r="G13" t="n">
         <v>219.470607139626</v>
@@ -5197,13 +5197,13 @@
         <v>70.82700907197575</v>
       </c>
       <c r="J13" t="n">
-        <v>162.4550267713179</v>
+        <v>162.455026771318</v>
       </c>
       <c r="K13" t="n">
-        <v>412.9475949726008</v>
+        <v>412.947594972601</v>
       </c>
       <c r="L13" t="n">
-        <v>776.0127786735036</v>
+        <v>776.0127786735038</v>
       </c>
       <c r="M13" t="n">
         <v>1166.675209525459</v>
@@ -5212,10 +5212,10 @@
         <v>1554.588971483731</v>
       </c>
       <c r="O13" t="n">
-        <v>1900.42395565655</v>
+        <v>1900.423955656551</v>
       </c>
       <c r="P13" t="n">
-        <v>2179.536841342616</v>
+        <v>2179.536841342617</v>
       </c>
       <c r="Q13" t="n">
         <v>2303.652522747538</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022.787634864786</v>
+        <v>1517.11215145383</v>
       </c>
       <c r="C14" t="n">
-        <v>1701.274750872448</v>
+        <v>1195.599267461491</v>
       </c>
       <c r="D14" t="n">
-        <v>1390.458685213771</v>
+        <v>884.7832018028139</v>
       </c>
       <c r="E14" t="n">
-        <v>1052.1200655636</v>
+        <v>546.4445821526429</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5837937220656</v>
+        <v>438.449826278906</v>
       </c>
       <c r="G14" t="n">
-        <v>320.9609765151353</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="H14" t="n">
         <v>70.82700907197575</v>
@@ -5276,52 +5276,52 @@
         <v>70.82700907197575</v>
       </c>
       <c r="J14" t="n">
-        <v>406.0766237065723</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K14" t="n">
-        <v>739.8959973964188</v>
+        <v>593.5255137208477</v>
       </c>
       <c r="L14" t="n">
-        <v>1190.930210644828</v>
+        <v>1044.559726969257</v>
       </c>
       <c r="M14" t="n">
-        <v>1724.462115316752</v>
+        <v>1578.091631641181</v>
       </c>
       <c r="N14" t="n">
-        <v>2271.240932375535</v>
+        <v>2124.870448699964</v>
       </c>
       <c r="O14" t="n">
-        <v>2774.213403254872</v>
+        <v>2627.842919579301</v>
       </c>
       <c r="P14" t="n">
-        <v>3168.98776961205</v>
+        <v>3234.047025286303</v>
       </c>
       <c r="Q14" t="n">
-        <v>3417.274131367732</v>
+        <v>3482.333387041985</v>
       </c>
       <c r="R14" t="n">
-        <v>3541.350453598787</v>
+        <v>3541.350453598788</v>
       </c>
       <c r="S14" t="n">
         <v>3478.509418073956</v>
       </c>
       <c r="T14" t="n">
-        <v>3478.509418073956</v>
+        <v>3319.981303406251</v>
       </c>
       <c r="U14" t="n">
-        <v>3272.428574295865</v>
+        <v>3113.900459628161</v>
       </c>
       <c r="V14" t="n">
-        <v>2988.815319900368</v>
+        <v>2830.287205232664</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.496297578327</v>
+        <v>2524.968182910623</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.480172265321</v>
+        <v>2198.952057597617</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.480172265321</v>
+        <v>1856.262358569878</v>
       </c>
     </row>
     <row r="15">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7811424450872</v>
+        <v>763.7811424450865</v>
       </c>
       <c r="C16" t="n">
-        <v>642.2945924652536</v>
+        <v>642.2945924652529</v>
       </c>
       <c r="D16" t="n">
-        <v>539.6275860009912</v>
+        <v>539.6275860009905</v>
       </c>
       <c r="E16" t="n">
-        <v>439.1641253666713</v>
+        <v>439.1641253666706</v>
       </c>
       <c r="F16" t="n">
         <v>339.7238108168336</v>
@@ -5428,22 +5428,22 @@
         <v>219.4706071396258</v>
       </c>
       <c r="H16" t="n">
-        <v>120.703053305557</v>
+        <v>120.7030533055571</v>
       </c>
       <c r="I16" t="n">
         <v>70.82700907197575</v>
       </c>
       <c r="J16" t="n">
-        <v>162.455026771318</v>
+        <v>162.4550267713179</v>
       </c>
       <c r="K16" t="n">
-        <v>412.947594972601</v>
+        <v>412.9475949726009</v>
       </c>
       <c r="L16" t="n">
         <v>776.0127786735038</v>
       </c>
       <c r="M16" t="n">
-        <v>1166.67520952546</v>
+        <v>1166.675209525459</v>
       </c>
       <c r="N16" t="n">
         <v>1554.588971483731</v>
@@ -5464,13 +5464,13 @@
         <v>2117.035447228039</v>
       </c>
       <c r="T16" t="n">
-        <v>1942.718464745639</v>
+        <v>1942.718464745638</v>
       </c>
       <c r="U16" t="n">
         <v>1701.065230819355</v>
       </c>
       <c r="V16" t="n">
-        <v>1493.830375561542</v>
+        <v>1493.830375561541</v>
       </c>
       <c r="W16" t="n">
         <v>1251.862838472654</v>
@@ -5479,7 +5479,7 @@
         <v>1071.32292052271</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.9799743272536</v>
+        <v>897.9799743272529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1944.562145424456</v>
+        <v>1517.112151453829</v>
       </c>
       <c r="C17" t="n">
-        <v>1623.049261432117</v>
+        <v>1451.140783429288</v>
       </c>
       <c r="D17" t="n">
-        <v>1312.23319577344</v>
+        <v>1140.324717770611</v>
       </c>
       <c r="E17" t="n">
-        <v>973.894576123269</v>
+        <v>801.9860981204404</v>
       </c>
       <c r="F17" t="n">
-        <v>610.3583042817347</v>
+        <v>438.449826278906</v>
       </c>
       <c r="G17" t="n">
-        <v>242.7354870748041</v>
+        <v>70.82700907197575</v>
       </c>
       <c r="H17" t="n">
         <v>70.82700907197575</v>
@@ -5522,43 +5522,43 @@
         <v>1044.559726969257</v>
       </c>
       <c r="M17" t="n">
-        <v>1789.521370991005</v>
+        <v>1578.091631641181</v>
       </c>
       <c r="N17" t="n">
-        <v>2336.300188049787</v>
+        <v>2124.870448699964</v>
       </c>
       <c r="O17" t="n">
-        <v>2839.272658929124</v>
+        <v>2839.272658929125</v>
       </c>
       <c r="P17" t="n">
-        <v>3234.047025286302</v>
+        <v>3234.047025286303</v>
       </c>
       <c r="Q17" t="n">
         <v>3482.333387041985</v>
       </c>
       <c r="R17" t="n">
-        <v>3541.350453598787</v>
+        <v>3541.350453598788</v>
       </c>
       <c r="S17" t="n">
-        <v>3541.350453598787</v>
+        <v>3478.509418073956</v>
       </c>
       <c r="T17" t="n">
-        <v>3541.350453598787</v>
+        <v>3319.981303406252</v>
       </c>
       <c r="U17" t="n">
-        <v>3541.350453598787</v>
+        <v>3113.900459628161</v>
       </c>
       <c r="V17" t="n">
-        <v>3257.73719920329</v>
+        <v>2830.287205232664</v>
       </c>
       <c r="W17" t="n">
-        <v>2952.418176881249</v>
+        <v>2524.968182910623</v>
       </c>
       <c r="X17" t="n">
-        <v>2626.402051568242</v>
+        <v>2198.952057597616</v>
       </c>
       <c r="Y17" t="n">
-        <v>2283.712352540504</v>
+        <v>1856.262358569878</v>
       </c>
     </row>
     <row r="18">
@@ -5671,22 +5671,22 @@
         <v>70.82700907197575</v>
       </c>
       <c r="J19" t="n">
-        <v>162.4550267713179</v>
+        <v>162.4550267713188</v>
       </c>
       <c r="K19" t="n">
-        <v>412.9475949726009</v>
+        <v>412.9475949726017</v>
       </c>
       <c r="L19" t="n">
-        <v>776.0127786735036</v>
+        <v>776.0127786735045</v>
       </c>
       <c r="M19" t="n">
-        <v>1166.675209525459</v>
+        <v>1166.67520952546</v>
       </c>
       <c r="N19" t="n">
-        <v>1554.58897148373</v>
+        <v>1554.588971483731</v>
       </c>
       <c r="O19" t="n">
-        <v>1900.42395565655</v>
+        <v>1900.423955656551</v>
       </c>
       <c r="P19" t="n">
         <v>2179.536841342617</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1579.95318697866</v>
+        <v>1843.128276766836</v>
       </c>
       <c r="C20" t="n">
-        <v>1451.140783429289</v>
+        <v>1521.615392774497</v>
       </c>
       <c r="D20" t="n">
-        <v>1140.324717770611</v>
+        <v>1210.79932711582</v>
       </c>
       <c r="E20" t="n">
-        <v>801.9860981204404</v>
+        <v>872.4607074656492</v>
       </c>
       <c r="F20" t="n">
-        <v>438.449826278906</v>
+        <v>508.9244356241149</v>
       </c>
       <c r="G20" t="n">
-        <v>70.82700907197575</v>
+        <v>320.9609765151353</v>
       </c>
       <c r="H20" t="n">
         <v>70.82700907197575</v>
@@ -5750,52 +5750,52 @@
         <v>70.82700907197575</v>
       </c>
       <c r="J20" t="n">
-        <v>260.9440386275192</v>
+        <v>259.7061400310012</v>
       </c>
       <c r="K20" t="n">
-        <v>594.7634123173657</v>
+        <v>739.8959973964193</v>
       </c>
       <c r="L20" t="n">
-        <v>1045.797625565775</v>
+        <v>1190.930210644828</v>
       </c>
       <c r="M20" t="n">
-        <v>1579.329530237699</v>
+        <v>1724.462115316753</v>
       </c>
       <c r="N20" t="n">
-        <v>2126.108347296481</v>
+        <v>2271.240932375535</v>
       </c>
       <c r="O20" t="n">
-        <v>2629.080818175818</v>
+        <v>2774.213403254872</v>
       </c>
       <c r="P20" t="n">
-        <v>3023.855184532997</v>
+        <v>3168.98776961205</v>
       </c>
       <c r="Q20" t="n">
-        <v>3482.333387041985</v>
+        <v>3417.274131367732</v>
       </c>
       <c r="R20" t="n">
-        <v>3541.350453598787</v>
+        <v>3541.350453598788</v>
       </c>
       <c r="S20" t="n">
-        <v>3541.350453598787</v>
+        <v>3478.509418073956</v>
       </c>
       <c r="T20" t="n">
-        <v>3382.822338931082</v>
+        <v>3319.981303406251</v>
       </c>
       <c r="U20" t="n">
-        <v>3176.741495152992</v>
+        <v>3113.900459628161</v>
       </c>
       <c r="V20" t="n">
-        <v>2893.128240757495</v>
+        <v>2830.287205232664</v>
       </c>
       <c r="W20" t="n">
-        <v>2587.809218435454</v>
+        <v>2524.968182910623</v>
       </c>
       <c r="X20" t="n">
-        <v>2261.793093122447</v>
+        <v>2524.968182910623</v>
       </c>
       <c r="Y20" t="n">
-        <v>1919.103394094709</v>
+        <v>2182.278483882885</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>164.5042785625931</v>
       </c>
       <c r="K21" t="n">
-        <v>402.7684775429403</v>
+        <v>402.7684775429402</v>
       </c>
       <c r="L21" t="n">
-        <v>769.4666378556057</v>
+        <v>769.4666378556055</v>
       </c>
       <c r="M21" t="n">
         <v>1216.742963077922</v>
@@ -5908,13 +5908,13 @@
         <v>70.82700907197575</v>
       </c>
       <c r="J22" t="n">
-        <v>162.455026771318</v>
+        <v>162.4550267713188</v>
       </c>
       <c r="K22" t="n">
-        <v>412.9475949726011</v>
+        <v>412.9475949726017</v>
       </c>
       <c r="L22" t="n">
-        <v>776.012778673504</v>
+        <v>776.0127786735045</v>
       </c>
       <c r="M22" t="n">
         <v>1166.67520952546</v>
@@ -5929,19 +5929,19 @@
         <v>2179.536841342617</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.652522747538</v>
+        <v>2303.652522747539</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.271698453139</v>
+        <v>2261.27169845314</v>
       </c>
       <c r="S22" t="n">
-        <v>2117.035447228039</v>
+        <v>2117.03544722804</v>
       </c>
       <c r="T22" t="n">
-        <v>1942.718464745638</v>
+        <v>1942.718464745639</v>
       </c>
       <c r="U22" t="n">
-        <v>1701.065230819355</v>
+        <v>1701.065230819356</v>
       </c>
       <c r="V22" t="n">
         <v>1493.830375561542</v>
@@ -5975,34 +5975,34 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P23" t="n">
         <v>3474.791320094415</v>
@@ -6011,16 +6011,16 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
         <v>3346.282596468334</v>
@@ -6029,7 +6029,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6063,13 +6063,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L24" t="n">
         <v>779.7865456803191</v>
@@ -6142,19 +6142,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6166,7 +6166,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
         <v>2271.591606277853</v>
@@ -6212,43 +6212,43 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551628</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M26" t="n">
-        <v>1770.231306037953</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903278</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946816</v>
@@ -6300,7 +6300,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839444</v>
+        <v>412.4103109586943</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839437</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927022</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>861.1924410002417</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>633.2028901022244</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786342</v>
+        <v>412.4103109586943</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6458,40 +6458,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216517</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443164</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6500,7 +6500,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6537,13 +6537,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320243</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>278.8425593065525</v>
+        <v>431.9845838435968</v>
       </c>
       <c r="C31" t="n">
-        <v>109.9063763786456</v>
+        <v>431.9845838435968</v>
       </c>
       <c r="D31" t="n">
-        <v>109.9063763786456</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E31" t="n">
-        <v>109.9063763786456</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9063763786456</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6649,22 +6649,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783397</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783397</v>
+        <v>841.6225995718538</v>
       </c>
       <c r="X31" t="n">
-        <v>681.2836032803224</v>
+        <v>613.6330486738365</v>
       </c>
       <c r="Y31" t="n">
-        <v>460.4910241367922</v>
+        <v>613.6330486738365</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2345.027637916873</v>
       </c>
       <c r="C32" t="n">
-        <v>1980.060224942639</v>
+        <v>1980.06022494264</v>
       </c>
       <c r="D32" t="n">
         <v>1625.789630302068</v>
       </c>
       <c r="E32" t="n">
-        <v>1243.996481670002</v>
+        <v>1243.996481670003</v>
       </c>
       <c r="F32" t="n">
-        <v>837.0056808465727</v>
+        <v>837.0056808465736</v>
       </c>
       <c r="G32" t="n">
         <v>425.9283346577477</v>
       </c>
       <c r="H32" t="n">
-        <v>132.3398382326926</v>
+        <v>132.3398382326925</v>
       </c>
       <c r="I32" t="n">
-        <v>94.3380434383398</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J32" t="n">
-        <v>450.6228234177183</v>
+        <v>283.2171743973652</v>
       </c>
       <c r="K32" t="n">
-        <v>784.4421971075648</v>
+        <v>617.0365480872117</v>
       </c>
       <c r="L32" t="n">
-        <v>1278.298234883956</v>
+        <v>1068.070761335621</v>
       </c>
       <c r="M32" t="n">
-        <v>2256.848537713784</v>
+        <v>2046.621064165449</v>
       </c>
       <c r="N32" t="n">
-        <v>3236.600809940431</v>
+        <v>2918.020088850663</v>
       </c>
       <c r="O32" t="n">
-        <v>3739.573280819768</v>
+        <v>3420.99255973</v>
       </c>
       <c r="P32" t="n">
-        <v>4134.347647176946</v>
+        <v>4134.347647176945</v>
       </c>
       <c r="Q32" t="n">
-        <v>4592.825849685934</v>
+        <v>4592.825849685933</v>
       </c>
       <c r="R32" t="n">
-        <v>4716.90217191699</v>
+        <v>4716.902171916989</v>
       </c>
       <c r="S32" t="n">
         <v>4610.606607410263</v>
@@ -6731,10 +6731,10 @@
         <v>4408.623963760663</v>
       </c>
       <c r="U32" t="n">
-        <v>4159.088591000679</v>
+        <v>4159.088591000678</v>
       </c>
       <c r="V32" t="n">
-        <v>3832.020807623287</v>
+        <v>3832.020807623286</v>
       </c>
       <c r="W32" t="n">
         <v>3483.247256319351</v>
@@ -6774,13 +6774,13 @@
         <v>113.3453350368018</v>
       </c>
       <c r="I33" t="n">
-        <v>94.3380434383398</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J33" t="n">
-        <v>188.0153129289568</v>
+        <v>188.0153129289571</v>
       </c>
       <c r="K33" t="n">
-        <v>426.2795119093039</v>
+        <v>426.2795119093042</v>
       </c>
       <c r="L33" t="n">
         <v>792.9776722219693</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.3380434383398</v>
+        <v>558.3624195056314</v>
       </c>
       <c r="C34" t="n">
-        <v>94.3380434383398</v>
+        <v>393.4213405439032</v>
       </c>
       <c r="D34" t="n">
-        <v>94.3380434383398</v>
+        <v>393.4213405439032</v>
       </c>
       <c r="E34" t="n">
-        <v>94.3380434383398</v>
+        <v>249.5033509276887</v>
       </c>
       <c r="F34" t="n">
-        <v>94.3380434383398</v>
+        <v>249.5033509276887</v>
       </c>
       <c r="G34" t="n">
-        <v>94.3380434383398</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="H34" t="n">
-        <v>94.3380434383398</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="I34" t="n">
-        <v>94.3380434383398</v>
+        <v>94.33804343833978</v>
       </c>
       <c r="J34" t="n">
-        <v>143.3762772825268</v>
+        <v>143.376277282527</v>
       </c>
       <c r="K34" t="n">
-        <v>351.2790616286547</v>
+        <v>351.2790616286549</v>
       </c>
       <c r="L34" t="n">
-        <v>671.7544614744021</v>
+        <v>671.7544614744027</v>
       </c>
       <c r="M34" t="n">
         <v>1019.827108471203</v>
       </c>
       <c r="N34" t="n">
-        <v>1365.151086574319</v>
+        <v>1365.15108657432</v>
       </c>
       <c r="O34" t="n">
-        <v>1668.396286891984</v>
+        <v>1668.396286891985</v>
       </c>
       <c r="P34" t="n">
-        <v>1904.919388722894</v>
+        <v>1904.919388722896</v>
       </c>
       <c r="Q34" t="n">
-        <v>1986.445286272661</v>
+        <v>1986.445286272662</v>
       </c>
       <c r="R34" t="n">
-        <v>1900.609932996367</v>
+        <v>1900.609932996368</v>
       </c>
       <c r="S34" t="n">
-        <v>1712.919152789372</v>
+        <v>1712.919152789373</v>
       </c>
       <c r="T34" t="n">
-        <v>1495.147641325077</v>
+        <v>1712.919152789373</v>
       </c>
       <c r="U34" t="n">
-        <v>1210.039878416898</v>
+        <v>1712.919152789373</v>
       </c>
       <c r="V34" t="n">
-        <v>998.2053924823739</v>
+        <v>1462.229768549665</v>
       </c>
       <c r="W34" t="n">
-        <v>712.7833264115917</v>
+        <v>1176.807702478883</v>
       </c>
       <c r="X34" t="n">
-        <v>488.7888794797527</v>
+        <v>952.813255547044</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.9914043024011</v>
+        <v>736.0157803696925</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6944,16 +6944,16 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2033.429937623799</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7126,19 +7126,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M38" t="n">
-        <v>2095.32492147337</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N38" t="n">
-        <v>2642.103738532152</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O38" t="n">
-        <v>3145.076209411489</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P38" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873066</v>
@@ -7327,19 +7327,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7354,22 +7354,22 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
@@ -7397,64 +7397,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>2200.835586644152</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N41" t="n">
-        <v>2747.614403702934</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O41" t="n">
-        <v>3250.586874582271</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873066</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960334</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973163</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498219</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308446</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481266</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167332</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277854</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.38513864407</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7634,61 +7634,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.896141870841</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.101050269799</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899652</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257027</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913828</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415456</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643375</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.022961130268</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7834,22 +7834,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519654</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>233.4246751702873</v>
+        <v>232.8070029429869</v>
       </c>
       <c r="L8" t="n">
-        <v>248.6314749159781</v>
+        <v>233.3440872902951</v>
       </c>
       <c r="M8" t="n">
         <v>242.9383145767221</v>
       </c>
       <c r="N8" t="n">
-        <v>241.3438598453346</v>
+        <v>226.6741444469518</v>
       </c>
       <c r="O8" t="n">
-        <v>227.5119277352857</v>
+        <v>242.7993153609687</v>
       </c>
       <c r="P8" t="n">
-        <v>229.0256624647141</v>
+        <v>244.3130500903971</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>136.5152333244687</v>
+        <v>136.5152333244686</v>
       </c>
       <c r="L9" t="n">
-        <v>151.4114989932534</v>
+        <v>152.0585202453372</v>
       </c>
       <c r="M9" t="n">
         <v>155.3404562220593</v>
@@ -8544,7 +8544,7 @@
         <v>144.4930574233101</v>
       </c>
       <c r="O9" t="n">
-        <v>155.9295706884397</v>
+        <v>155.2825494363559</v>
       </c>
       <c r="P9" t="n">
         <v>132.4061008824312</v>
@@ -8617,10 +8617,10 @@
         <v>149.1483879575891</v>
       </c>
       <c r="M10" t="n">
-        <v>153.1338488146764</v>
+        <v>152.5161765873761</v>
       </c>
       <c r="N10" t="n">
-        <v>141.301600987799</v>
+        <v>141.9192732150993</v>
       </c>
       <c r="O10" t="n">
         <v>152.770701566078</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.8489734096678</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>147.8489734096682</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.8489734096678</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>213.5653932826507</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>213.5653932826502</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>213.5653932826506</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.250402622745497</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>147.8489734096682</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>277.220684154414</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>288.047814956104</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7862464855152</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>34.13957882094024</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>43.25436821008316</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>327.8991996226578</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="N35" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>342.937104027396</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>306.6874953089252</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>400.203297288211</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>40.02214132148598</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>306.6874953089244</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>21.13839585591369</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.3559265393866</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>164.8600235319585</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.413093018358829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>252.9861008081195</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>252.9861008081195</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>77.44323454592785</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>190.7734756385374</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>177.8627645169714</v>
       </c>
       <c r="H20" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>238.9230922902733</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>58.34254217336932</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>151.8239197480796</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.2916681721112</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.6603200916957</v>
+        <v>144.6603200916956</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4788097200525</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.4658950964146</v>
+        <v>141.4658950964145</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0706553325116</v>
+        <v>8.457000918056053</v>
       </c>
       <c r="H34" t="n">
-        <v>140.7998619878041</v>
+        <v>140.799861987804</v>
       </c>
       <c r="I34" t="n">
-        <v>92.39726748332143</v>
+        <v>92.39726748332131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>215.5937963496524</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.2566852790961</v>
       </c>
       <c r="V34" t="n">
-        <v>38.46634932213223</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.636113549669972e-12</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756622.0404831154</v>
+        <v>756622.0404831155</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756622.0404831152</v>
+        <v>756622.0404831154</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756622.0404831151</v>
+        <v>756622.0404831154</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808709.251937924</v>
+        <v>808709.2519379241</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>803514.4998726454</v>
+        <v>803514.4998726455</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808709.251937924</v>
+        <v>808709.2519379241</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808709.251937924</v>
+        <v>808709.2519379241</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>808709.251937924</v>
+        <v>808709.2519379238</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="C2" t="n">
         <v>655421.0709736306</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
         <v>624954.0152556531</v>
       </c>
       <c r="F2" t="n">
-        <v>624954.015255653</v>
+        <v>624954.0152556531</v>
       </c>
       <c r="G2" t="n">
         <v>624954.0152556533</v>
       </c>
       <c r="H2" t="n">
-        <v>624954.015255653</v>
+        <v>624954.0152556533</v>
       </c>
       <c r="I2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="J2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="K2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="L2" t="n">
+        <v>637141.3040090709</v>
+      </c>
+      <c r="M2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="N2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="O2" t="n">
         <v>656833.4158914271</v>
-      </c>
-      <c r="J2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="K2" t="n">
-        <v>635330.8590191732</v>
-      </c>
-      <c r="L2" t="n">
-        <v>637141.3040090706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.4158914266</v>
-      </c>
-      <c r="O2" t="n">
-        <v>656833.4158914268</v>
       </c>
       <c r="P2" t="n">
         <v>656833.4158914264</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8018.753949164929</v>
+        <v>8018.753949164971</v>
       </c>
       <c r="E3" t="n">
         <v>1169820.214567984</v>
@@ -26387,13 +26387,13 @@
         <v>34303.50260819521</v>
       </c>
       <c r="J3" t="n">
-        <v>47142.09215872969</v>
+        <v>47142.0921587296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3164.122341213331</v>
+        <v>3164.122341213427</v>
       </c>
       <c r="M3" t="n">
         <v>210144.9646838792</v>
@@ -26421,43 +26421,43 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>418376.5748366918</v>
+        <v>418376.5748366919</v>
       </c>
       <c r="E4" t="n">
-        <v>62361.15708337419</v>
+        <v>62361.15708337421</v>
       </c>
       <c r="F4" t="n">
-        <v>62361.1570833742</v>
+        <v>62361.15708337421</v>
       </c>
       <c r="G4" t="n">
         <v>62361.15708337419</v>
       </c>
       <c r="H4" t="n">
-        <v>62361.15708337417</v>
+        <v>62361.1570833742</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120098</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="J4" t="n">
-        <v>49388.53342030742</v>
+        <v>49388.53342030739</v>
       </c>
       <c r="K4" t="n">
         <v>49388.5334203074</v>
       </c>
       <c r="L4" t="n">
-        <v>51691.75066197896</v>
+        <v>51691.75066197907</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="N4" t="n">
+        <v>76652.56781120101</v>
+      </c>
+      <c r="O4" t="n">
         <v>76652.56781120098</v>
       </c>
-      <c r="O4" t="n">
-        <v>76652.56781120102</v>
-      </c>
       <c r="P4" t="n">
-        <v>76652.56781120099</v>
+        <v>76652.5678112009</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>95786.55083745148</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201645.7020840994</v>
+        <v>201641.2885062314</v>
       </c>
       <c r="C6" t="n">
-        <v>201645.7020840994</v>
+        <v>201641.2885062313</v>
       </c>
       <c r="D6" t="n">
-        <v>195797.7753249022</v>
+        <v>195797.7753249024</v>
       </c>
       <c r="E6" t="n">
-        <v>-688762.1681237286</v>
+        <v>-688861.7912507154</v>
       </c>
       <c r="F6" t="n">
-        <v>481058.0464442548</v>
+        <v>480958.4233172681</v>
       </c>
       <c r="G6" t="n">
-        <v>481058.0464442552</v>
+        <v>480958.4233172684</v>
       </c>
       <c r="H6" t="n">
-        <v>481058.0464442548</v>
+        <v>480958.4233172684</v>
       </c>
       <c r="I6" t="n">
-        <v>456499.4037972248</v>
+        <v>456499.4037972245</v>
       </c>
       <c r="J6" t="n">
-        <v>442416.7151864223</v>
+        <v>442349.5196961964</v>
       </c>
       <c r="K6" t="n">
-        <v>489558.8073451521</v>
+        <v>489491.6118549262</v>
       </c>
       <c r="L6" t="n">
-        <v>486498.8801684269</v>
+        <v>486437.3423187945</v>
       </c>
       <c r="M6" t="n">
-        <v>280657.9417215402</v>
+        <v>280657.9417215405</v>
       </c>
       <c r="N6" t="n">
-        <v>490802.9064054195</v>
+        <v>490802.9064054198</v>
       </c>
       <c r="O6" t="n">
-        <v>490802.9064054198</v>
+        <v>490802.9064054201</v>
       </c>
       <c r="P6" t="n">
-        <v>490802.9064054193</v>
+        <v>490802.9064054194</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.818285001178163</v>
+        <v>3.818285001178213</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>15.28738762568308</v>
       </c>
       <c r="E4" t="n">
-        <v>885.3376133996968</v>
+        <v>885.3376133996969</v>
       </c>
       <c r="F4" t="n">
-        <v>885.3376133996968</v>
+        <v>885.3376133996969</v>
       </c>
       <c r="G4" t="n">
-        <v>885.3376133996968</v>
+        <v>885.3376133996969</v>
       </c>
       <c r="H4" t="n">
-        <v>885.3376133996968</v>
+        <v>885.3376133996969</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26823,13 +26823,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="M2" t="n">
-        <v>43.01998369207591</v>
+        <v>43.01998369207578</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.818285001178163</v>
+        <v>3.818285001178213</v>
       </c>
       <c r="E3" t="n">
         <v>1085.95841559212</v>
@@ -27018,7 +27018,7 @@
         <v>15.28738762568308</v>
       </c>
       <c r="E4" t="n">
-        <v>870.0502257740136</v>
+        <v>870.0502257740138</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>128.9988478089177</v>
       </c>
       <c r="J4" t="n">
-        <v>180.176469396316</v>
+        <v>180.1764693963156</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>705.1611440033806</v>
+        <v>705.1611440033811</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>15.28738762568308</v>
       </c>
       <c r="M4" t="n">
-        <v>870.0502257740136</v>
+        <v>870.0502257740138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5886581160283</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.3176000604171</v>
+        <v>332.7285147814269</v>
       </c>
       <c r="I8" t="n">
         <v>209.8841129573087</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.64648667473815</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.333083839988086</v>
       </c>
       <c r="R8" t="n">
         <v>148.9048954478622</v>
       </c>
       <c r="S8" t="n">
-        <v>198.8973358487</v>
+        <v>193.3828963546754</v>
       </c>
       <c r="T8" t="n">
         <v>223.0286554230553</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.9535810917299</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2457960241843</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1576779389557</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3576928297179</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7818247677008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>123.8701732276008</v>
+        <v>137.3353042483024</v>
       </c>
       <c r="H9" t="n">
         <v>112.1561247688305</v>
       </c>
       <c r="I9" t="n">
-        <v>89.11386363198821</v>
+        <v>89.1138636319882</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.64791299720278</v>
+        <v>86.18278197650112</v>
       </c>
       <c r="S9" t="n">
         <v>171.5306198115738</v>
@@ -27986,13 +27986,13 @@
         <v>200.1316248842925</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9408417576256</v>
+        <v>210.6534541319425</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.4075955352365</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28032,10 +28032,10 @@
         <v>155.2434112094895</v>
       </c>
       <c r="J10" t="n">
-        <v>92.87238007644061</v>
+        <v>92.87238007644059</v>
       </c>
       <c r="K10" t="n">
-        <v>6.182142195034906</v>
+        <v>21.46952982071797</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,34 +28050,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.888679035833153</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.58548221651648</v>
+        <v>70.2980945908334</v>
       </c>
       <c r="R10" t="n">
-        <v>161.6964096922106</v>
+        <v>176.9837973178936</v>
       </c>
       <c r="S10" t="n">
-        <v>223.8966037361975</v>
+        <v>208.6092161105145</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9161698553216</v>
+        <v>214.4510388346199</v>
       </c>
       <c r="U10" t="n">
         <v>286.3186537874744</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.8502556981449</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4222677633541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.0082013672263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859338</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859338</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859301</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="C32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="D32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="E32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="F32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="G32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="H32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="I32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="T32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="U32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="V32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="W32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="X32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="C34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="D34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="E34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="F34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="G34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="H34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="I34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="J34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="K34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="L34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="M34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="N34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="O34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="P34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="R34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="S34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="T34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="U34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="V34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="W34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="X34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.955152926516664</v>
+        <v>3.955152926516784</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30405,7 +30405,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L40" t="n">
         <v>46.97513661859255</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859462</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859199</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859245</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0153498894519725</v>
+        <v>0.0153498894519727</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1572020553500134</v>
+        <v>0.1572020553500155</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5917766130971706</v>
+        <v>0.5917766130971782</v>
       </c>
       <c r="J8" t="n">
-        <v>1.302802679874353</v>
+        <v>1.302802679874369</v>
       </c>
       <c r="K8" t="n">
-        <v>1.952563500376349</v>
+        <v>1.952563500376374</v>
       </c>
       <c r="L8" t="n">
-        <v>2.422327679692153</v>
+        <v>2.422327679692184</v>
       </c>
       <c r="M8" t="n">
-        <v>2.695306276233669</v>
+        <v>2.695306276233704</v>
       </c>
       <c r="N8" t="n">
-        <v>2.738919149639086</v>
+        <v>2.738919149639121</v>
       </c>
       <c r="O8" t="n">
-        <v>2.586283686401034</v>
+        <v>2.586283686401067</v>
       </c>
       <c r="P8" t="n">
-        <v>2.207333290555463</v>
+        <v>2.207333290555491</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.657615374556697</v>
+        <v>1.657615374556718</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9642224932874687</v>
+        <v>0.9642224932874811</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3497856058868238</v>
+        <v>0.3497856058868283</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06719414107600967</v>
+        <v>0.06719414107601054</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0012279911561578</v>
+        <v>0.001227991156157816</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00821291490819454</v>
+        <v>0.008212914908194646</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07931946766598412</v>
+        <v>0.07931946766598515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2827692194268734</v>
+        <v>0.2827692194268771</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7759403510413098</v>
+        <v>0.7759403510413198</v>
       </c>
       <c r="K9" t="n">
-        <v>1.326205649890344</v>
+        <v>1.326205649890361</v>
       </c>
       <c r="L9" t="n">
-        <v>1.783247160220047</v>
+        <v>1.78324716022007</v>
       </c>
       <c r="M9" t="n">
-        <v>2.080965325642099</v>
+        <v>2.080965325642126</v>
       </c>
       <c r="N9" t="n">
-        <v>2.136042285706263</v>
+        <v>2.136042285706291</v>
       </c>
       <c r="O9" t="n">
-        <v>1.954061381687847</v>
+        <v>1.954061381687873</v>
       </c>
       <c r="P9" t="n">
-        <v>1.568306531899008</v>
+        <v>1.568306531899029</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.04837138371971</v>
+        <v>1.048371383719724</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5099211554403594</v>
+        <v>0.509921155440366</v>
       </c>
       <c r="S9" t="n">
-        <v>0.152551292264052</v>
+        <v>0.152551292264054</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03310381052908237</v>
+        <v>0.0331038105290828</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0005403233492233253</v>
+        <v>0.0005403233492233322</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006885431969337671</v>
+        <v>0.006885431969337759</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06121774969102042</v>
+        <v>0.06121774969102121</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2070637177688093</v>
+        <v>0.207063717768812</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4868000402321733</v>
+        <v>0.4868000402321796</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7999620051648674</v>
+        <v>0.7999620051648777</v>
       </c>
       <c r="L10" t="n">
-        <v>1.023675949332257</v>
+        <v>1.02367594933227</v>
       </c>
       <c r="M10" t="n">
-        <v>1.079322758611722</v>
+        <v>1.079322758611736</v>
       </c>
       <c r="N10" t="n">
-        <v>1.053658875816919</v>
+        <v>1.053658875816933</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9732245114478377</v>
+        <v>0.9732245114478503</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8327616992733485</v>
+        <v>0.8327616992733593</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5765610351779026</v>
+        <v>0.5765610351779101</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3095940592758555</v>
+        <v>0.3095940592758595</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1199943007747301</v>
+        <v>0.1199943007747316</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02941957295989731</v>
+        <v>0.02941957295989769</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0003755690165093279</v>
+        <v>0.0003755690165093328</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32075,10 +32075,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32786,13 +32786,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33260,13 +33260,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33497,13 +33497,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15.28738762568308</v>
+        <v>14.66971539838275</v>
       </c>
       <c r="L8" t="n">
-        <v>15.28738762568308</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>15.28738762568308</v>
       </c>
       <c r="N8" t="n">
-        <v>14.66971539838275</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02934902478345303</v>
+        <v>0.02934902478346302</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.6403663735993</v>
+        <v>15.28738762568308</v>
       </c>
       <c r="M9" t="n">
         <v>15.28738762568308</v>
@@ -35264,7 +35264,7 @@
         <v>15.28738762568308</v>
       </c>
       <c r="O9" t="n">
-        <v>15.28738762568308</v>
+        <v>14.64036637359929</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>15.28738762568308</v>
       </c>
       <c r="M10" t="n">
+        <v>14.66971539838275</v>
+      </c>
+      <c r="N10" t="n">
         <v>15.28738762568308</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14.66971539838275</v>
       </c>
       <c r="O10" t="n">
         <v>15.28738762568308</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>338.6359743783804</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>485.0402599650687</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35504,7 +35504,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>338.6359743783804</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35662,13 +35662,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>612.3273795020226</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35890,13 +35890,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>752.486509112877</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>721.6183941708697</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165961</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36057,7 +36057,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637039</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>192.0374035914581</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>485.0402599650687</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36139,10 +36139,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165961</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>461.709877710406</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>675.9826703737858</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36522,7 +36522,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120768</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>840.3496503690155</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,7 +36765,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>559.3763608778473</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>432.9015650403121</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,7 +37002,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>498.8444826024153</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>880.2010350355692</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597678</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.53356953958288</v>
+        <v>49.53356953958301</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0028124708362</v>
+        <v>210.0028124708363</v>
       </c>
       <c r="L34" t="n">
-        <v>323.7125250967148</v>
+        <v>323.7125250967149</v>
       </c>
       <c r="M34" t="n">
-        <v>351.5885323200005</v>
+        <v>351.5885323200006</v>
       </c>
       <c r="N34" t="n">
-        <v>348.8120990940567</v>
+        <v>348.8120990940569</v>
       </c>
       <c r="O34" t="n">
-        <v>306.3082831491565</v>
+        <v>306.3082831491566</v>
       </c>
       <c r="P34" t="n">
-        <v>238.9122240716271</v>
+        <v>238.9122240716272</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.34939146441032</v>
+        <v>82.34939146441044</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,19 +37312,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>729.1561268582145</v>
       </c>
       <c r="N35" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>881.8582198576228</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>705.449481528297</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37701,7 +37701,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>952.5051327011225</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37798,10 +37798,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.8164461252055</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323166084</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.832082786132</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>814.7404961971438</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>80.75159439813847</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
